--- a/entrypoint/api/xlsx/order_20250424_163006.xlsx
+++ b/entrypoint/api/xlsx/order_20250424_163006.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewmaster/www/joycity/entrypoint/api/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25E1AF8-DF98-8846-8506-D10AF909D8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3ECB90-3BA1-D74F-BBC7-4BFBFBAD8F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="531">
   <si>
     <t>Инструкция по заполнению</t>
   </si>
@@ -1628,13 +1628,13 @@
     <t>泡沫橡膠</t>
   </si>
   <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR9SRRmhH4X5N2e4QalcoxVbzYsD44C-sQv-w&amp;s ; https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSj8sKRgBGHeqyyzcVzby3YrHH_s0KVk-PozzvgrCdsueqkbhorjmZ0cByvks-Oy9tK38M&amp;usqp=CAU ; https://plus.unsplash.com/premium_photo-1696694227400-a28a190be90b?fm=jpg&amp;q=60&amp;w=3000&amp;ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D</t>
-  </si>
-  <si>
     <t>Товар в тестовой заявке</t>
   </si>
   <si>
     <t>Описание для товара из заявки</t>
+  </si>
+  <si>
+    <t>https://fakeimg.pl/600x400</t>
   </si>
 </sst>
 </file>
@@ -2044,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2085,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2151,13 +2151,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>530</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
@@ -2190,10 +2190,89 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>196</v>
+      </c>
+      <c r="F3" s="4">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100</v>
+      </c>
+      <c r="H3" s="4">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>3</v>
+      </c>
+      <c r="L3" s="4">
+        <v>22</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>199</v>
+      </c>
+      <c r="F4" s="4">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4">
+        <v>230</v>
+      </c>
+      <c r="H4" s="4">
+        <v>8</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>6</v>
+      </c>
+      <c r="L4" s="4">
+        <v>43</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR9SRRmhH4X5N2e4QalcoxVbzYsD44C-sQv-w&amp;s ;" xr:uid="{8291944E-A3A5-794A-BA62-AD3B46EA23DA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
